--- a/Data/skillTab.xlsx
+++ b/Data/skillTab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2800" windowWidth="28580" windowHeight="17040"/>
+    <workbookView xWindow="9740" yWindow="1080" windowWidth="28580" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>ys z</author>
     <author>Administrator</author>
-    <author>ys z</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -30,6 +30,30 @@
         <r>
           <rPr>
             <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否必须释放的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -41,51 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -105,14 +85,122 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-作用目标
-1中央牌库
-2自己手牌
-4自身弃牌组</t>
+释放条件
+暂时没用
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+生效条件
+------
+每控制一个阵营神器数量
+每使用一张机械神器
+每控制一个机械神器
+控制两个及以上神器
+使用过其他的命约英雄
+如果对手控制的神器大于1
+每回合打出一次命约英雄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用目标---- 当是牌相关
+中央牌库
+自己手牌
+自己装备区
+自己弃牌区
+对手手牌
+对手装备区
+对手弃牌区
+作用目标----- 金钱相关
+卡牌类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -139,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SkillID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -149,10 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,7 +245,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActiveTarget</t>
+    <t>IsBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMustCast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecifyTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastCondition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveCondition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +311,31 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +354,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,12 +376,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,8 +397,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,50 +677,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Data/skillTab.xlsx
+++ b/Data/skillTab.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="1080" windowWidth="28580" windowHeight="17040"/>
+    <workbookView windowWidth="25920" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -31,7 +26,6 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -40,7 +34,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -71,7 +64,6 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -80,7 +72,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -97,7 +88,6 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -106,7 +96,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -141,6 +130,31 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+1001摸牌N
+1002放逐N
+1003抽取对手的N牌加入自己手牌
+1004获取中央牌库一张牌
+1005获取一张中央牌库英雄牌
+1006击杀一个N战力以下
+1007获取一个N费以下中央牌
+1008摧毁N张对手控制的神器
+1009摧毁敌方的神器剩N个
+1020增加战力
+1021增加金钱
+1022增加积分
+1023增加N金钱和X战力
+1024增加N金钱或战力
+1025加N金钱或积分
+1026增加N金钱和积分
+1027增加N战力和积分
+1028增加N战力或积分
+1029每回合可以用N钱换X 分
+1040不可被放逐
+1041把所有神器当作机械神器
+1042这回合下次购买神器消耗减少N
+1043回合中获取的神器可以直接用
+1044放逐自己开启额外回合
+1045复制 此汇合用过的一张英雄牌效果
 </t>
         </r>
       </text>
@@ -167,13 +181,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+附属的
+用于双属性 如
+增加N金钱和X战力
+每回合可以用N钱换X 分</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -182,7 +220,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -196,11 +233,35 @@
 对手装备区
 对手弃牌区
 作用目标----- 金钱相关
+卡牌阵营
 卡牌类型</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+双目标情况
+如从某处摸牌后放入某处</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -227,53 +288,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>SkillID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SkillName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMustCast</t>
+  </si>
+  <si>
+    <t>IsBuff</t>
+  </si>
+  <si>
+    <t>CastCondition</t>
+  </si>
+  <si>
+    <t>ActiveCondition</t>
   </si>
   <si>
     <t>EffectType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsMustCast</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectValue2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SpecifyTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CastCondition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>SpecifyTarget2</t>
   </si>
   <si>
-    <t>ActiveCondition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Des</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,60 +345,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,30 +489,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -375,15 +706,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -391,25 +952,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,81 +1275,86 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1666666666667" customWidth="1"/>
+    <col min="5" max="6" width="15.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.3333333333333" customWidth="1"/>
+    <col min="10" max="11" width="14.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="13.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>